--- a/DATA/collate_cultivar_data/data/reference_crop_coeff.xlsx
+++ b/DATA/collate_cultivar_data/data/reference_crop_coeff.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>cco</t>
+  </si>
+  <si>
+    <t>season_day</t>
   </si>
   <si>
     <t>wrapped_date</t>
@@ -383,2938 +386,4036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>42917</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>42918</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>42919</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>42920</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>42921</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>42922</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>42923</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>42924</v>
       </c>
       <c r="B9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>42925</v>
       </c>
       <c r="B10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>42926</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>42927</v>
       </c>
       <c r="B12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>42928</v>
       </c>
       <c r="B13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>42929</v>
       </c>
       <c r="B14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>42930</v>
       </c>
       <c r="B15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>42931</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>42932</v>
       </c>
       <c r="B17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>42933</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>42934</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>42935</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>42936</v>
       </c>
       <c r="B21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>42937</v>
       </c>
       <c r="B22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>42938</v>
       </c>
       <c r="B23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>42939</v>
       </c>
       <c r="B24">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>42940</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>42941</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>42942</v>
       </c>
       <c r="B27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>42943</v>
       </c>
       <c r="B28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>42944</v>
       </c>
       <c r="B29">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>42945</v>
       </c>
       <c r="B30">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>42946</v>
       </c>
       <c r="B31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
       <c r="B32">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>42948</v>
       </c>
       <c r="B33">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>42949</v>
       </c>
       <c r="B34">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>42950</v>
       </c>
       <c r="B35">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>42951</v>
       </c>
       <c r="B36">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>42952</v>
       </c>
       <c r="B37">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>42953</v>
       </c>
       <c r="B38">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>42954</v>
       </c>
       <c r="B39">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>42955</v>
       </c>
       <c r="B40">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>42956</v>
       </c>
       <c r="B41">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>42957</v>
       </c>
       <c r="B42">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>42958</v>
       </c>
       <c r="B43">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>42959</v>
       </c>
       <c r="B44">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>42960</v>
       </c>
       <c r="B45">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>42961</v>
       </c>
       <c r="B46">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>42962</v>
       </c>
       <c r="B47">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>42963</v>
       </c>
       <c r="B48">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>42964</v>
       </c>
       <c r="B49">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>42965</v>
       </c>
       <c r="B50">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>42966</v>
       </c>
       <c r="B51">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>42967</v>
       </c>
       <c r="B52">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>42968</v>
       </c>
       <c r="B53">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>42969</v>
       </c>
       <c r="B54">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>42970</v>
       </c>
       <c r="B55">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>42971</v>
       </c>
       <c r="B56">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>42972</v>
       </c>
       <c r="B57">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>42973</v>
       </c>
       <c r="B58">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>42974</v>
       </c>
       <c r="B59">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>42975</v>
       </c>
       <c r="B60">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>42976</v>
       </c>
       <c r="B61">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>42977</v>
       </c>
       <c r="B62">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>42978</v>
       </c>
       <c r="B63">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>42979</v>
       </c>
       <c r="B64">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>42980</v>
       </c>
       <c r="B65">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>42981</v>
       </c>
       <c r="B66">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>42982</v>
       </c>
       <c r="B67">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>42983</v>
       </c>
       <c r="B68">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>42984</v>
       </c>
       <c r="B69">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>42985</v>
       </c>
       <c r="B70">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>42986</v>
       </c>
       <c r="B71">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>42987</v>
       </c>
       <c r="B72">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>42988</v>
       </c>
       <c r="B73">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>42989</v>
       </c>
       <c r="B74">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>42990</v>
       </c>
       <c r="B75">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>42991</v>
       </c>
       <c r="B76">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>42992</v>
       </c>
       <c r="B77">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>42993</v>
       </c>
       <c r="B78">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>42994</v>
       </c>
       <c r="B79">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>42995</v>
       </c>
       <c r="B80">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>42996</v>
       </c>
       <c r="B81">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>42997</v>
       </c>
       <c r="B82">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>42998</v>
       </c>
       <c r="B83">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>42999</v>
       </c>
       <c r="B84">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>43000</v>
       </c>
       <c r="B85">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>43001</v>
       </c>
       <c r="B86">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>43002</v>
       </c>
       <c r="B87">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>43003</v>
       </c>
       <c r="B88">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>43004</v>
       </c>
       <c r="B89">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>43005</v>
       </c>
       <c r="B90">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>43006</v>
       </c>
       <c r="B91">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>43007</v>
       </c>
       <c r="B92">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>43008</v>
       </c>
       <c r="B93">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>43009</v>
       </c>
       <c r="B94">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>43010</v>
       </c>
       <c r="B95">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>43011</v>
       </c>
       <c r="B96">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>43012</v>
       </c>
       <c r="B97">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>43013</v>
       </c>
       <c r="B98">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>43014</v>
       </c>
       <c r="B99">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>43015</v>
       </c>
       <c r="B100">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>43016</v>
       </c>
       <c r="B101">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>43017</v>
       </c>
       <c r="B102">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>43018</v>
       </c>
       <c r="B103">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>43019</v>
       </c>
       <c r="B104">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>43020</v>
       </c>
       <c r="B105">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>43021</v>
       </c>
       <c r="B106">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>43022</v>
       </c>
       <c r="B107">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>43023</v>
       </c>
       <c r="B108">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>43024</v>
       </c>
       <c r="B109">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>43025</v>
       </c>
       <c r="B110">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>43026</v>
       </c>
       <c r="B111">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>43027</v>
       </c>
       <c r="B112">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>43028</v>
       </c>
       <c r="B113">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>43029</v>
       </c>
       <c r="B114">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>43030</v>
       </c>
       <c r="B115">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>43031</v>
       </c>
       <c r="B116">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>43032</v>
       </c>
       <c r="B117">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>43033</v>
       </c>
       <c r="B118">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>43034</v>
       </c>
       <c r="B119">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>43035</v>
       </c>
       <c r="B120">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>43036</v>
       </c>
       <c r="B121">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>43037</v>
       </c>
       <c r="B122">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>43038</v>
       </c>
       <c r="B123">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>43039</v>
       </c>
       <c r="B124">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>43040</v>
       </c>
       <c r="B125">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>43041</v>
       </c>
       <c r="B126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>43042</v>
       </c>
       <c r="B127">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>43043</v>
       </c>
       <c r="B128">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>43044</v>
       </c>
       <c r="B129">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>43045</v>
       </c>
       <c r="B130">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>43046</v>
       </c>
       <c r="B131">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>43047</v>
       </c>
       <c r="B132">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>43048</v>
       </c>
       <c r="B133">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>43049</v>
       </c>
       <c r="B134">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>43050</v>
       </c>
       <c r="B135">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>43051</v>
       </c>
       <c r="B136">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>43052</v>
       </c>
       <c r="B137">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>43053</v>
       </c>
       <c r="B138">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>43054</v>
       </c>
       <c r="B139">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>43055</v>
       </c>
       <c r="B140">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>43056</v>
       </c>
       <c r="B141">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>43057</v>
       </c>
       <c r="B142">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>43058</v>
       </c>
       <c r="B143">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>43059</v>
       </c>
       <c r="B144">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>43060</v>
       </c>
       <c r="B145">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>43061</v>
       </c>
       <c r="B146">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>43062</v>
       </c>
       <c r="B147">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>43063</v>
       </c>
       <c r="B148">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>43064</v>
       </c>
       <c r="B149">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>43065</v>
       </c>
       <c r="B150">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>43066</v>
       </c>
       <c r="B151">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>43067</v>
       </c>
       <c r="B152">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>43068</v>
       </c>
       <c r="B153">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>43069</v>
       </c>
       <c r="B154">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>43070</v>
       </c>
       <c r="B155">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>43071</v>
       </c>
       <c r="B156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>43072</v>
       </c>
       <c r="B157">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>43073</v>
       </c>
       <c r="B158">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>43074</v>
       </c>
       <c r="B159">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>43075</v>
       </c>
       <c r="B160">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>43076</v>
       </c>
       <c r="B161">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>43077</v>
       </c>
       <c r="B162">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>43078</v>
       </c>
       <c r="B163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>43079</v>
       </c>
       <c r="B164">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>43080</v>
       </c>
       <c r="B165">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>43081</v>
       </c>
       <c r="B166">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>43082</v>
       </c>
       <c r="B167">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>43083</v>
       </c>
       <c r="B168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>43084</v>
       </c>
       <c r="B169">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>43085</v>
       </c>
       <c r="B170">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>43086</v>
       </c>
       <c r="B171">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>43087</v>
       </c>
       <c r="B172">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>43088</v>
       </c>
       <c r="B173">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>43089</v>
       </c>
       <c r="B174">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>43090</v>
       </c>
       <c r="B175">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>43091</v>
       </c>
       <c r="B176">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>43092</v>
       </c>
       <c r="B177">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>43093</v>
       </c>
       <c r="B178">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>43094</v>
       </c>
       <c r="B179">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>43095</v>
       </c>
       <c r="B180">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>43096</v>
       </c>
       <c r="B181">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>43097</v>
       </c>
       <c r="B182">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>43098</v>
       </c>
       <c r="B183">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>43099</v>
       </c>
       <c r="B184">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>43100</v>
       </c>
       <c r="B185">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>43101</v>
       </c>
       <c r="B186">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>43102</v>
       </c>
       <c r="B187">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>43103</v>
       </c>
       <c r="B188">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>43104</v>
       </c>
       <c r="B189">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>43105</v>
       </c>
       <c r="B190">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>43106</v>
       </c>
       <c r="B191">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>43107</v>
       </c>
       <c r="B192">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>43108</v>
       </c>
       <c r="B193">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>43109</v>
       </c>
       <c r="B194">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>43110</v>
       </c>
       <c r="B195">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>43111</v>
       </c>
       <c r="B196">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>43112</v>
       </c>
       <c r="B197">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>43113</v>
       </c>
       <c r="B198">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>43114</v>
       </c>
       <c r="B199">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>43115</v>
       </c>
       <c r="B200">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>43116</v>
       </c>
       <c r="B201">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>43117</v>
       </c>
       <c r="B202">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>43118</v>
       </c>
       <c r="B203">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>43119</v>
       </c>
       <c r="B204">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>43120</v>
       </c>
       <c r="B205">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>43121</v>
       </c>
       <c r="B206">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>43122</v>
       </c>
       <c r="B207">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>43123</v>
       </c>
       <c r="B208">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>43124</v>
       </c>
       <c r="B209">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>43125</v>
       </c>
       <c r="B210">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>43126</v>
       </c>
       <c r="B211">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>43127</v>
       </c>
       <c r="B212">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>43128</v>
       </c>
       <c r="B213">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>43129</v>
       </c>
       <c r="B214">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>43130</v>
       </c>
       <c r="B215">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>43131</v>
       </c>
       <c r="B216">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>43132</v>
       </c>
       <c r="B217">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>43133</v>
       </c>
       <c r="B218">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>43134</v>
       </c>
       <c r="B219">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>43135</v>
       </c>
       <c r="B220">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>43136</v>
       </c>
       <c r="B221">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>43137</v>
       </c>
       <c r="B222">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>43138</v>
       </c>
       <c r="B223">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>43139</v>
       </c>
       <c r="B224">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>43140</v>
       </c>
       <c r="B225">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>43141</v>
       </c>
       <c r="B226">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>43142</v>
       </c>
       <c r="B227">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>43143</v>
       </c>
       <c r="B228">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>43144</v>
       </c>
       <c r="B229">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>43145</v>
       </c>
       <c r="B230">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>43146</v>
       </c>
       <c r="B231">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>43147</v>
       </c>
       <c r="B232">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>43148</v>
       </c>
       <c r="B233">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>43149</v>
       </c>
       <c r="B234">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>43150</v>
       </c>
       <c r="B235">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>43151</v>
       </c>
       <c r="B236">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>43152</v>
       </c>
       <c r="B237">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>43153</v>
       </c>
       <c r="B238">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>43154</v>
       </c>
       <c r="B239">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>43155</v>
       </c>
       <c r="B240">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>43156</v>
       </c>
       <c r="B241">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>43157</v>
       </c>
       <c r="B242">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>43158</v>
       </c>
       <c r="B243">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>43159</v>
       </c>
       <c r="B244">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>43160</v>
       </c>
       <c r="B245">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>43161</v>
       </c>
       <c r="B246">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>43162</v>
       </c>
       <c r="B247">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>43163</v>
       </c>
       <c r="B248">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>43164</v>
       </c>
       <c r="B249">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>43165</v>
       </c>
       <c r="B250">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>43166</v>
       </c>
       <c r="B251">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>43167</v>
       </c>
       <c r="B252">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>43168</v>
       </c>
       <c r="B253">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>43169</v>
       </c>
       <c r="B254">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="C254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>43170</v>
       </c>
       <c r="B255">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="C255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>43171</v>
       </c>
       <c r="B256">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>43172</v>
       </c>
       <c r="B257">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>43173</v>
       </c>
       <c r="B258">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>43174</v>
       </c>
       <c r="B259">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>43175</v>
       </c>
       <c r="B260">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>43176</v>
       </c>
       <c r="B261">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>43177</v>
       </c>
       <c r="B262">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>43178</v>
       </c>
       <c r="B263">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>43179</v>
       </c>
       <c r="B264">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>43180</v>
       </c>
       <c r="B265">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>43181</v>
       </c>
       <c r="B266">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>43182</v>
       </c>
       <c r="B267">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="C267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="2">
         <v>43183</v>
       </c>
       <c r="B268">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="C268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="2">
         <v>43184</v>
       </c>
       <c r="B269">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="C269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="2">
         <v>43185</v>
       </c>
       <c r="B270">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
+      <c r="C270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="2">
         <v>43186</v>
       </c>
       <c r="B271">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
+      <c r="C271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="2">
         <v>43187</v>
       </c>
       <c r="B272">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="C272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="2">
         <v>43188</v>
       </c>
       <c r="B273">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="C273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="2">
         <v>43189</v>
       </c>
       <c r="B274">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="C274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="2">
         <v>43190</v>
       </c>
       <c r="B275">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="C275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" s="2">
         <v>43191</v>
       </c>
       <c r="B276">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="C276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>43192</v>
       </c>
       <c r="B277">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="C277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="2">
         <v>43193</v>
       </c>
       <c r="B278">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="C278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="2">
         <v>43194</v>
       </c>
       <c r="B279">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="C279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="2">
         <v>43195</v>
       </c>
       <c r="B280">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
+      <c r="C280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="2">
         <v>43196</v>
       </c>
       <c r="B281">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
+      <c r="C281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="2">
         <v>43197</v>
       </c>
       <c r="B282">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
+      <c r="C282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="2">
         <v>43198</v>
       </c>
       <c r="B283">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
+      <c r="C283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="2">
         <v>43199</v>
       </c>
       <c r="B284">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
+      <c r="C284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="2">
         <v>43200</v>
       </c>
       <c r="B285">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
+      <c r="C285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>43201</v>
       </c>
       <c r="B286">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="2">
         <v>43202</v>
       </c>
       <c r="B287">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
+      <c r="C287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="2">
         <v>43203</v>
       </c>
       <c r="B288">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
+      <c r="C288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="2">
         <v>43204</v>
       </c>
       <c r="B289">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
+      <c r="C289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="2">
         <v>43205</v>
       </c>
       <c r="B290">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
+      <c r="C290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="2">
         <v>43206</v>
       </c>
       <c r="B291">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
+      <c r="C291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="2">
         <v>43207</v>
       </c>
       <c r="B292">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
+      <c r="C292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="2">
         <v>43208</v>
       </c>
       <c r="B293">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
+      <c r="C293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="2">
         <v>43209</v>
       </c>
       <c r="B294">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
+      <c r="C294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="2">
         <v>43210</v>
       </c>
       <c r="B295">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
+      <c r="C295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="2">
         <v>43211</v>
       </c>
       <c r="B296">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
+      <c r="C296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="2">
         <v>43212</v>
       </c>
       <c r="B297">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
+      <c r="C297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="2">
         <v>43213</v>
       </c>
       <c r="B298">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="2">
         <v>43214</v>
       </c>
       <c r="B299">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="2">
         <v>43215</v>
       </c>
       <c r="B300">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
+      <c r="C300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="2">
         <v>43216</v>
       </c>
       <c r="B301">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
+      <c r="C301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="2">
         <v>43217</v>
       </c>
       <c r="B302">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
+      <c r="C302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="2">
         <v>43218</v>
       </c>
       <c r="B303">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
+      <c r="C303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="2">
         <v>43219</v>
       </c>
       <c r="B304">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
+      <c r="C304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" s="2">
         <v>43220</v>
       </c>
       <c r="B305">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="C305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" s="2">
         <v>43221</v>
       </c>
       <c r="B306">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="307" spans="1:2">
+      <c r="C306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="2">
         <v>43222</v>
       </c>
       <c r="B307">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="308" spans="1:2">
+      <c r="C307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="2">
         <v>43223</v>
       </c>
       <c r="B308">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
+      <c r="C308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="2">
         <v>43224</v>
       </c>
       <c r="B309">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
+      <c r="C309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" s="2">
         <v>43225</v>
       </c>
       <c r="B310">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="C310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" s="2">
         <v>43226</v>
       </c>
       <c r="B311">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="312" spans="1:2">
+      <c r="C311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" s="2">
         <v>43227</v>
       </c>
       <c r="B312">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="313" spans="1:2">
+      <c r="C312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" s="2">
         <v>43228</v>
       </c>
       <c r="B313">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
+      <c r="C313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="2">
         <v>43229</v>
       </c>
       <c r="B314">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
+      <c r="C314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="2">
         <v>43230</v>
       </c>
       <c r="B315">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
+      <c r="C315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" s="2">
         <v>43231</v>
       </c>
       <c r="B316">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
+      <c r="C316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="2">
         <v>43232</v>
       </c>
       <c r="B317">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="C317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="2">
         <v>43233</v>
       </c>
       <c r="B318">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="C318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" s="2">
         <v>43234</v>
       </c>
       <c r="B319">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
+      <c r="C319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="2">
         <v>43235</v>
       </c>
       <c r="B320">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="2">
         <v>43236</v>
       </c>
       <c r="B321">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="2">
         <v>43237</v>
       </c>
       <c r="B322">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="2">
         <v>43238</v>
       </c>
       <c r="B323">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="C323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" s="2">
         <v>43239</v>
       </c>
       <c r="B324">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="2">
         <v>43240</v>
       </c>
       <c r="B325">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
+      <c r="C325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="2">
         <v>43241</v>
       </c>
       <c r="B326">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="C326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="2">
         <v>43242</v>
       </c>
       <c r="B327">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="C327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" s="2">
         <v>43243</v>
       </c>
       <c r="B328">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="2">
         <v>43244</v>
       </c>
       <c r="B329">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="C329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="2">
         <v>43245</v>
       </c>
       <c r="B330">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="C330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="2">
         <v>43246</v>
       </c>
       <c r="B331">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="C331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" s="2">
         <v>43247</v>
       </c>
       <c r="B332">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
+      <c r="C332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" s="2">
         <v>43248</v>
       </c>
       <c r="B333">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="2">
         <v>43249</v>
       </c>
       <c r="B334">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="2">
         <v>43250</v>
       </c>
       <c r="B335">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="C335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="2">
         <v>43251</v>
       </c>
       <c r="B336">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="C336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="2">
         <v>43252</v>
       </c>
       <c r="B337">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="2">
         <v>43253</v>
       </c>
       <c r="B338">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="2">
         <v>43254</v>
       </c>
       <c r="B339">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
+      <c r="C339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="2">
         <v>43255</v>
       </c>
       <c r="B340">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="C340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="2">
         <v>43256</v>
       </c>
       <c r="B341">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="C341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="2">
         <v>43257</v>
       </c>
       <c r="B342">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="C342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="2">
         <v>43258</v>
       </c>
       <c r="B343">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="2">
         <v>43259</v>
       </c>
       <c r="B344">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="C344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="2">
         <v>43260</v>
       </c>
       <c r="B345">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
+      <c r="C345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="2">
         <v>43261</v>
       </c>
       <c r="B346">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="2">
         <v>43262</v>
       </c>
       <c r="B347">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
+      <c r="C347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" s="2">
         <v>43263</v>
       </c>
       <c r="B348">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
+      <c r="C348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" s="2">
         <v>43264</v>
       </c>
       <c r="B349">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="C349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="2">
         <v>43265</v>
       </c>
       <c r="B350">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
+      <c r="C350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="2">
         <v>43266</v>
       </c>
       <c r="B351">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
+      <c r="C351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="2">
         <v>43267</v>
       </c>
       <c r="B352">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
+      <c r="C352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="2">
         <v>43268</v>
       </c>
       <c r="B353">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
+      <c r="C353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" s="2">
         <v>43269</v>
       </c>
       <c r="B354">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
+      <c r="C354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" s="2">
         <v>43270</v>
       </c>
       <c r="B355">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
+      <c r="C355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" s="2">
         <v>43271</v>
       </c>
       <c r="B356">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
+      <c r="C356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="2">
         <v>43272</v>
       </c>
       <c r="B357">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
+      <c r="C357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="2">
         <v>43273</v>
       </c>
       <c r="B358">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
+      <c r="C358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="2">
         <v>43274</v>
       </c>
       <c r="B359">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
+      <c r="C359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="2">
         <v>43275</v>
       </c>
       <c r="B360">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
+      <c r="C360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="2">
         <v>43276</v>
       </c>
       <c r="B361">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
+      <c r="C361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="2">
         <v>43277</v>
       </c>
       <c r="B362">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
+      <c r="C362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="2">
         <v>43278</v>
       </c>
       <c r="B363">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
+      <c r="C363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="2">
         <v>43279</v>
       </c>
       <c r="B364">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
+      <c r="C364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="2">
         <v>43280</v>
       </c>
       <c r="B365">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
+      <c r="C365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="2">
         <v>43281</v>
       </c>
       <c r="B366">
         <v>0.1</v>
+      </c>
+      <c r="C366">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
